--- a/sim01/GRADE/Sim01_GradingForm_v01.xlsx
+++ b/sim01/GRADE/Sim01_GradingForm_v01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="121">
   <si>
     <t xml:space="preserve">Sim:</t>
   </si>
@@ -175,6 +175,15 @@
     <t xml:space="preserve">Comments (add lines as needed):</t>
   </si>
   <si>
+    <t xml:space="preserve">The files extracted just fine.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All headers are used and accounted for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the code builds and runs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Program Source Code Easily Readable &amp; Understandable</t>
   </si>
   <si>
@@ -202,6 +211,9 @@
     <t xml:space="preserve">&lt; 40 pts: Program is written and structured clearly, all parts are quickly and easily understood</t>
   </si>
   <si>
+    <t xml:space="preserve">Code is easy to read and understand</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quality Program Development</t>
   </si>
   <si>
@@ -220,6 +232,9 @@
     <t xml:space="preserve">It is clear which file a given support function will be found in</t>
   </si>
   <si>
+    <t xml:space="preserve">The program matches what we were going off of in the instructors videos. </t>
+  </si>
+  <si>
     <t xml:space="preserve">one function is called from the main to access configuration data</t>
   </si>
   <si>
@@ -241,6 +256,15 @@
     <t xml:space="preserve">meta-data accessor and mutator functions are easily understandable and used correctly</t>
   </si>
   <si>
+    <t xml:space="preserve">The logical piece of these parts of the program appear to be correct when cross-referencing with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my own implementation. The issues arise with logic regarding main possibly. The flags passed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">into the binary all return the same information none of which correct.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Program Operation</t>
   </si>
   <si>
@@ -266,6 +290,18 @@
   </si>
   <si>
     <t xml:space="preserve">Run simulator function is called correctly and displays "runSim called here"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-dc -dm -rs all return the same thing. A printf() debug statement and the name of the metadata file being tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RunSim is not filled out with the printf() statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">configops.c:207:         printf("test 3\n\n");   // get data value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config and metadata files are formatted correctly but do not display correctly</t>
   </si>
   <si>
     <t xml:space="preserve">Grade Reductions</t>
@@ -424,6 +460,15 @@
     <t xml:space="preserve">Other evidence of specification or constraint not met (contact Michael)</t>
   </si>
   <si>
+    <t xml:space="preserve">All necessary grading files are included. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No use of non-standard libraries for the class </t>
+  </si>
+  <si>
+    <t xml:space="preserve">correct naming and file compression</t>
+  </si>
+  <si>
     <t xml:space="preserve">Instructor Grade Management - No student input below this line</t>
   </si>
   <si>
@@ -446,6 +491,15 @@
   </si>
   <si>
     <t xml:space="preserve">Poor grading, minimal comments: 0 and 25% reduction of grade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall the program makes a great attempt to follow all specs and requirements of sim01. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The programmer made errors when it came to getting the command line arguments/flags working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the correct order and independently. </t>
   </si>
   <si>
     <t xml:space="preserve">Total Score:</t>
@@ -458,7 +512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -525,6 +579,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -603,36 +663,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -644,27 +704,27 @@
       <alignment horizontal="right" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -672,7 +732,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -680,15 +744,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -764,21 +828,63 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>642960</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>56520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>225360</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10237680" y="18430200"/>
+          <a:ext cx="4094280" cy="5498280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:V158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B96" activeCellId="0" sqref="B96"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K166" activeCellId="0" sqref="K166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="5.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.71"/>
@@ -817,7 +923,7 @@
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -828,7 +934,9 @@
       <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7" t="n">
+        <v>355444</v>
+      </c>
       <c r="N3" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,7 +1036,9 @@
       <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="D18" s="13"/>
       <c r="E18" s="1" t="s">
         <v>18</v>
@@ -938,7 +1048,9 @@
       <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="D19" s="14"/>
       <c r="E19" s="1" t="s">
         <v>19</v>
@@ -948,7 +1060,9 @@
       <c r="B20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="D20" s="14"/>
       <c r="E20" s="1" t="s">
         <v>20</v>
@@ -972,7 +1086,9 @@
       <c r="B25" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>23</v>
       </c>
@@ -984,7 +1100,9 @@
       <c r="B26" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>23</v>
       </c>
@@ -996,7 +1114,9 @@
       <c r="B27" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C27" s="15"/>
+      <c r="C27" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
@@ -1008,7 +1128,9 @@
       <c r="B28" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1020,7 +1142,9 @@
       <c r="B29" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1034,7 +1158,7 @@
       </c>
       <c r="C30" s="2" t="n">
         <f aca="false">SUM(C25:C29)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>10</v>
@@ -1046,7 +1170,9 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="13"/>
+      <c r="E32" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -1058,7 +1184,9 @@
       <c r="N32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="14"/>
+      <c r="E33" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -1070,7 +1198,9 @@
       <c r="N33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="14"/>
+      <c r="E34" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
@@ -1096,7 +1226,7 @@
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="12"/>
       <c r="D37" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,12 +1236,12 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1121,12 +1251,14 @@
       <c r="B42" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="C42" s="15"/>
+      <c r="C42" s="15" t="n">
+        <v>40</v>
+      </c>
       <c r="D42" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,28 +1267,28 @@
       </c>
       <c r="C43" s="2" t="n">
         <f aca="false">C42</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>40</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1165,7 +1297,9 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E49" s="13"/>
+      <c r="E49" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
@@ -1215,7 +1349,7 @@
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="12"/>
       <c r="D54" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1227,48 +1361,56 @@
       <c r="B57" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C57" s="15"/>
+      <c r="C57" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="D57" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C58" s="15"/>
+      <c r="C58" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="D58" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C59" s="15"/>
+      <c r="C59" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="D59" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C60" s="15"/>
+      <c r="C60" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="D60" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,7 +1419,7 @@
       </c>
       <c r="C61" s="2" t="n">
         <f aca="false">SUM(C57:C60)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>20</v>
@@ -1289,7 +1431,9 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="13"/>
+      <c r="E63" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
@@ -1340,78 +1484,90 @@
       <c r="B68" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C68" s="15"/>
+      <c r="C68" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="D68" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C69" s="15"/>
+      <c r="C69" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="D69" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C70" s="15"/>
+      <c r="C70" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="D70" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C71" s="15"/>
+      <c r="C71" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="D71" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C72" s="15"/>
+      <c r="C72" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="D72" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C73" s="15"/>
+      <c r="C73" s="15" t="n">
+        <v>5</v>
+      </c>
       <c r="D73" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="1" t="n">
         <f aca="false">SUM(C68:C73)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>30</v>
@@ -1423,7 +1579,9 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E76" s="13"/>
+      <c r="E76" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F76" s="13"/>
       <c r="G76" s="13"/>
       <c r="H76" s="13"/>
@@ -1435,7 +1593,9 @@
       <c r="N76" s="13"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E77" s="14"/>
+      <c r="E77" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
@@ -1447,7 +1607,9 @@
       <c r="N77" s="14"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E78" s="14"/>
+      <c r="E78" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
@@ -1472,77 +1634,87 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D81" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C85" s="15"/>
+      <c r="C85" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D85" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C86" s="15"/>
+      <c r="C86" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D86" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C87" s="15"/>
+      <c r="C87" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D87" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C88" s="15"/>
+      <c r="C88" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D88" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C89" s="15"/>
+      <c r="C89" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D89" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,7 +1723,7 @@
       </c>
       <c r="C90" s="1" t="n">
         <f aca="false">SUM(C85:C89)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>25</v>
@@ -1559,67 +1731,77 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C92" s="15"/>
+      <c r="C92" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D92" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C93" s="15"/>
+      <c r="C93" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D93" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C94" s="15"/>
+      <c r="C94" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D94" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C95" s="15"/>
+      <c r="C95" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D95" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C96" s="15"/>
+      <c r="C96" s="15" t="n">
+        <v>2</v>
+      </c>
       <c r="D96" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1628,7 +1810,7 @@
       </c>
       <c r="C97" s="1" t="n">
         <f aca="false">SUM(C92:C96)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>25</v>
@@ -1638,12 +1820,14 @@
       <c r="B99" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C99" s="15"/>
+      <c r="C99" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D99" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1658,12 +1842,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="13"/>
+      <c r="E102" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="F102" s="13"/>
       <c r="G102" s="13"/>
       <c r="H102" s="13"/>
@@ -1682,12 +1868,14 @@
       <c r="U102" s="1"/>
       <c r="V102" s="1"/>
     </row>
-    <row r="103" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="14"/>
+      <c r="E103" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
       <c r="H103" s="14"/>
@@ -1706,12 +1894,14 @@
       <c r="U103" s="1"/>
       <c r="V103" s="1"/>
     </row>
-    <row r="104" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="14"/>
+      <c r="E104" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
@@ -1735,7 +1925,9 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="14"/>
+      <c r="E105" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
@@ -1756,18 +1948,18 @@
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D107" s="12" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D108" s="12"/>
       <c r="E108" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,12 +1970,14 @@
       <c r="B111" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C111" s="15"/>
+      <c r="C111" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D111" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -1803,17 +1997,19 @@
       <c r="U111" s="1"/>
       <c r="V111" s="1"/>
     </row>
-    <row r="112" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1"/>
       <c r="B112" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C112" s="15"/>
+      <c r="C112" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D112" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -1833,17 +2029,19 @@
       <c r="U112" s="1"/>
       <c r="V112" s="1"/>
     </row>
-    <row r="113" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1"/>
       <c r="B113" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C113" s="15"/>
+      <c r="C113" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D113" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -1863,17 +2061,19 @@
       <c r="U113" s="1"/>
       <c r="V113" s="1"/>
     </row>
-    <row r="114" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1"/>
       <c r="B114" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C114" s="15"/>
+      <c r="C114" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D114" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -1893,17 +2093,19 @@
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
     </row>
-    <row r="115" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1"/>
       <c r="B115" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C115" s="15"/>
+      <c r="C115" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D115" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -1923,17 +2125,19 @@
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
     </row>
-    <row r="116" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1"/>
       <c r="B116" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C116" s="15"/>
+      <c r="C116" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D116" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -1953,17 +2157,19 @@
       <c r="U116" s="1"/>
       <c r="V116" s="1"/>
     </row>
-    <row r="117" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1"/>
       <c r="B117" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C117" s="15"/>
+      <c r="C117" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D117" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -1983,17 +2189,19 @@
       <c r="U117" s="1"/>
       <c r="V117" s="1"/>
     </row>
-    <row r="118" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1"/>
       <c r="B118" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C118" s="15"/>
+      <c r="C118" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D118" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -2013,17 +2221,19 @@
       <c r="U118" s="1"/>
       <c r="V118" s="1"/>
     </row>
-    <row r="119" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1"/>
       <c r="B119" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C119" s="15"/>
+      <c r="C119" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D119" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -2043,17 +2253,19 @@
       <c r="U119" s="1"/>
       <c r="V119" s="1"/>
     </row>
-    <row r="120" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1"/>
       <c r="B120" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C120" s="15"/>
+      <c r="C120" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D120" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -2073,17 +2285,19 @@
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
     </row>
-    <row r="121" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1"/>
       <c r="B121" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C121" s="15"/>
+      <c r="C121" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D121" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -2103,17 +2317,19 @@
       <c r="U121" s="1"/>
       <c r="V121" s="1"/>
     </row>
-    <row r="122" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1"/>
       <c r="B122" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C122" s="15"/>
+      <c r="C122" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D122" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -2133,17 +2349,19 @@
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
     </row>
-    <row r="123" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1"/>
       <c r="B123" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C123" s="15"/>
+      <c r="C123" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D123" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -2163,17 +2381,19 @@
       <c r="U123" s="1"/>
       <c r="V123" s="1"/>
     </row>
-    <row r="124" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1"/>
       <c r="B124" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C124" s="15"/>
+      <c r="C124" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D124" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -2193,17 +2413,19 @@
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
     </row>
-    <row r="125" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1"/>
       <c r="B125" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C125" s="15"/>
+      <c r="C125" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D125" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -2223,17 +2445,19 @@
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
     </row>
-    <row r="126" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1"/>
       <c r="B126" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C126" s="15"/>
+      <c r="C126" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D126" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -2253,17 +2477,19 @@
       <c r="U126" s="1"/>
       <c r="V126" s="1"/>
     </row>
-    <row r="127" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1"/>
       <c r="B127" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C127" s="15"/>
+      <c r="C127" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D127" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
@@ -2283,17 +2509,19 @@
       <c r="U127" s="1"/>
       <c r="V127" s="1"/>
     </row>
-    <row r="128" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1"/>
       <c r="B128" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C128" s="15"/>
+      <c r="C128" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="D128" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -2331,7 +2559,7 @@
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D131" s="12" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,11 +2573,11 @@
       <c r="C133" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="D133" s="18" t="s">
-        <v>87</v>
+      <c r="D133" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -2377,11 +2605,11 @@
       <c r="C134" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="D134" s="18" t="s">
-        <v>87</v>
+      <c r="D134" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -2409,11 +2637,11 @@
       <c r="C135" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="D135" s="18" t="s">
-        <v>87</v>
+      <c r="D135" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -2441,11 +2669,11 @@
       <c r="C136" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="D136" s="18" t="s">
-        <v>87</v>
+      <c r="D136" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -2473,11 +2701,11 @@
       <c r="C137" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="D137" s="18" t="s">
-        <v>87</v>
+      <c r="D137" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -2505,11 +2733,11 @@
       <c r="C138" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="D138" s="18" t="s">
-        <v>87</v>
+      <c r="D138" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
@@ -2537,7 +2765,7 @@
         <f aca="false">SUM(C133:C138)</f>
         <v>0</v>
       </c>
-      <c r="D139" s="18" t="n">
+      <c r="D139" s="19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2546,7 +2774,9 @@
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="13"/>
+      <c r="E140" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="F140" s="13"/>
       <c r="G140" s="13"/>
       <c r="H140" s="13"/>
@@ -2570,7 +2800,9 @@
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="14"/>
+      <c r="E141" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
       <c r="H141" s="14"/>
@@ -2594,7 +2826,9 @@
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="14"/>
+      <c r="E142" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="F142" s="14"/>
       <c r="G142" s="14"/>
       <c r="H142" s="14"/>
@@ -2638,33 +2872,33 @@
       <c r="V143" s="1"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="19"/>
-      <c r="B145" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
-      <c r="K145" s="19"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="19"/>
-      <c r="N145" s="19"/>
+      <c r="A145" s="20"/>
+      <c r="B145" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C145" s="20"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="20"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="20"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="20"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F147" s="2" t="n">
         <f aca="false">C30+C43+C61+C74+C90+C97+C100+C129+C139</f>
-        <v>0</v>
-      </c>
-      <c r="G147" s="21" t="s">
-        <v>96</v>
+        <v>120</v>
+      </c>
+      <c r="G147" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="H147" s="2" t="n">
         <f aca="false">D30+D43+D61+D74+D90+D97+D100+D129+D139</f>
@@ -2673,14 +2907,14 @@
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F148" s="2" t="n">
         <f aca="false">CEILING(F147*H148/H147,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G148" s="21" t="s">
-        <v>96</v>
+        <v>78</v>
+      </c>
+      <c r="G148" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="H148" s="2" t="n">
         <v>100</v>
@@ -2688,18 +2922,18 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J149" s="11" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D150" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="J150" s="11" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="152" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2707,7 +2941,9 @@
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="13"/>
+      <c r="E152" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="F152" s="13"/>
       <c r="G152" s="13"/>
       <c r="H152" s="13"/>
@@ -2731,7 +2967,9 @@
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="14"/>
+      <c r="E153" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="F153" s="14"/>
       <c r="G153" s="14"/>
       <c r="H153" s="14"/>
@@ -2755,7 +2993,9 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="14"/>
+      <c r="E154" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="F154" s="14"/>
       <c r="G154" s="14"/>
       <c r="H154" s="14"/>
@@ -2803,14 +3043,14 @@
         <v>1</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F158" s="2" t="n">
         <f aca="false">CEILING(A158*(C150+F148),1)</f>
-        <v>0</v>
-      </c>
-      <c r="G158" s="21" t="s">
-        <v>96</v>
+        <v>78</v>
+      </c>
+      <c r="G158" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="H158" s="2" t="n">
         <v>125</v>
@@ -2818,11 +3058,12 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>